--- a/Income/ESS_inc.xlsx
+++ b/Income/ESS_inc.xlsx
@@ -1653,16 +1653,16 @@
         <v>0.6825</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.6888</v>
+        <v>0.6916</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.6948</v>
+        <v>0.6976</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.7031</v>
+        <v>0.7059</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.7022</v>
+        <v>0.7051</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.703</v>
@@ -1780,16 +1780,16 @@
         <v>0.3286</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.3276</v>
+        <v>0.3289</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.3252</v>
+        <v>0.3265</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.3303</v>
+        <v>0.3317</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.3281</v>
+        <v>0.3295</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.3725</v>
@@ -1907,16 +1907,16 @@
         <v>0.4098</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4188</v>
+        <v>0.4205</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4376</v>
+        <v>0.4394</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4444</v>
+        <v>0.4462</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3168</v>
+        <v>0.3181</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3155</v>
@@ -2034,16 +2034,16 @@
         <v>0.3895</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3984</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4164</v>
+        <v>0.4181</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.423</v>
+        <v>0.4247</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2996</v>
+        <v>0.3008</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2978</v>
@@ -2161,16 +2161,16 @@
         <v>0.3383</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.4214</v>
+        <v>0.2884</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3667</v>
+        <v>0.2332</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1968</v>
+        <v>0.0618</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4648</v>
+        <v>0.3275</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4293</v>
@@ -3732,16 +3732,16 @@
         <v>0.6716</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.6624</v>
+        <v>0.6651</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.6523</v>
+        <v>0.6549</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.6476</v>
+        <v>0.6502</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.6425</v>
+        <v>0.6452</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.6944</v>
@@ -3859,16 +3859,16 @@
         <v>0.585</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.7301</v>
+        <v>0.5983</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.7568</v>
+        <v>0.6248</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.7591</v>
+        <v>0.6264</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.7654</v>
+        <v>0.6294</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.5928</v>
